--- a/CCU/EtOH/analyses/parameter_distributions/parameter-distributions_full.xlsx
+++ b/CCU/EtOH/analyses/parameter_distributions/parameter-distributions_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\Code_CCU\EtOH\analyses\parameter_distributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\GitHub\CCU\CCU\EtOH\analyses\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AFC32E-A38D-4034-B487-AB23E6CD79E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084C987-67F0-44D1-A949-E45043544DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,12 +387,6 @@
     <t>PowerUtility.price = x</t>
   </si>
   <si>
-    <t>CFs['GWP_100']['cornstover'] = x</t>
-  </si>
-  <si>
-    <t>CFs['GWP_100']['Electricity'] = x</t>
-  </si>
-  <si>
     <t>makeup_MEA.price = x</t>
   </si>
   <si>
@@ -441,15 +435,6 @@
     <t>MeOH.price = x</t>
   </si>
   <si>
-    <t>CFs['GWP_100']['CH3OH'] = x</t>
-  </si>
-  <si>
-    <t>CFs['GWP_100']['O2'] = x</t>
-  </si>
-  <si>
-    <t>CFs['GWP_100']['H2'] = x</t>
-  </si>
-  <si>
     <t>hydrogen.price = x</t>
   </si>
   <si>
@@ -532,6 +517,21 @@
   </si>
   <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>lca.CFs['GWP_100']['cornstover'] = x</t>
+  </si>
+  <si>
+    <t>lca.CFs['GWP_100']['Electricity'] = x</t>
+  </si>
+  <si>
+    <t>lca.CFs['GWP_100']['H2'] = x</t>
+  </si>
+  <si>
+    <t>lca.CFs['GWP_100']['MeOH'] = x</t>
+  </si>
+  <si>
+    <t>lca.CFs['GWP_100']['oxygen'] = x</t>
   </si>
 </sst>
 </file>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1152,7 +1152,7 @@
         <v>6.1074999999999997E-2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1280,7 +1280,7 @@
         <v>0.10937626894095984</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1311,7 +1311,7 @@
         <v>0.1751604946094448</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1342,7 +1342,7 @@
         <v>1.0509629676566701</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1374,7 +1374,7 @@
         <v>0.49049082487137308</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1405,7 +1405,7 @@
         <v>0.11895995005808951</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1436,7 +1436,7 @@
         <v>1.4411192147993641</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1467,7 +1467,7 @@
         <v>1.0955492753754372</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1498,7 +1498,7 @@
         <v>1.1039239470817117</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1529,7 +1529,7 @@
         <v>2.5736459023251239</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1564,7 +1564,7 @@
         <v>0.34724082771509157</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1599,7 +1599,7 @@
         <v>0.16216800000000001</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1634,7 +1634,7 @@
         <v>4.2762225516771357</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1642,7 +1642,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>16</v>
@@ -1702,7 +1702,7 @@
         <v>1.3107390071921759E-3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1738,7 +1738,7 @@
         <v>2.7185697926948881E-3</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1773,7 +1773,7 @@
         <v>-4.4395558211468962E-2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1806,7 +1806,7 @@
         <v>0.25</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1839,7 +1839,7 @@
         <v>0.03</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1874,7 +1874,7 @@
         <v>0.11000000000000001</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1907,7 +1907,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1940,7 +1940,7 @@
         <v>0.97</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1973,7 +1973,7 @@
         <v>0.9</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2006,7 +2006,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2039,7 +2039,7 @@
         <v>0.85</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2070,7 +2070,7 @@
         <v>0.88000000000000012</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2101,7 +2101,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2135,7 +2135,7 @@
         <v>0.13134000000000001</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2143,7 +2143,7 @@
         <v>94</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>16</v>
@@ -2170,7 +2170,7 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2199,7 +2199,7 @@
         <v>0.95</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2230,7 +2230,7 @@
         <v>1.728</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2261,7 +2261,7 @@
         <v>38.98293628808856</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2296,7 +2296,7 @@
         <v>0.72</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2331,7 +2331,7 @@
         <v>0.252</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2366,7 +2366,7 @@
         <v>3.4758620689655162</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2401,7 +2401,7 @@
         <v>2130</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2436,7 +2436,7 @@
         <v>9460.7999999999993</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2471,7 +2471,7 @@
         <v>0.6</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2504,7 +2504,7 @@
         <v>0.4</v>
       </c>
       <c r="J48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2539,7 +2539,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2574,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2609,7 +2609,7 @@
         <v>1.212</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2644,7 +2644,7 @@
         <v>1.6559999999999999</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2679,7 +2679,7 @@
         <v>1.26</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2715,7 +2715,7 @@
         <v>69.580799999999996</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2783,7 +2783,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2818,7 +2818,7 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2853,7 +2853,7 @@
         <v>0.20712</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2889,7 +2889,7 @@
         <v>17.265499416556704</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2925,7 +2925,7 @@
         <v>6.643361399999999</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2961,7 +2961,7 @@
         <v>12.853205121214435</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2997,7 +2997,7 @@
         <v>10.543310399999999</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3033,7 +3033,7 @@
         <v>11.70217182677732</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3069,7 +3069,7 @@
         <v>17.751491999999999</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.55000000000000004">

--- a/CCU/EtOH/analyses/parameter_distributions/parameter-distributions_full.xlsx
+++ b/CCU/EtOH/analyses/parameter_distributions/parameter-distributions_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\GitHub\CCU\CCU\EtOH\analyses\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084C987-67F0-44D1-A949-E45043544DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C40BE-6919-4660-8F6E-3C5EAD970F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="168">
   <si>
     <t>Parameter name</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Feedstock unit price</t>
   </si>
   <si>
-    <t>Natural gas unit price</t>
-  </si>
-  <si>
     <t>Uniform</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>Electricity -wind unit price</t>
-  </si>
-  <si>
     <t>Electrolyzer stack F_BM</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>U101.specifications[0].args[4] = x</t>
   </si>
   <si>
-    <t>Electricity-wind GWP</t>
-  </si>
-  <si>
     <t>LCA</t>
   </si>
   <si>
@@ -318,12 +309,6 @@
     <t>Feedstock GWP</t>
   </si>
   <si>
-    <t>Electricity unit price</t>
-  </si>
-  <si>
-    <t>Electricity GWP</t>
-  </si>
-  <si>
     <t>kg CO2e/kWh</t>
   </si>
   <si>
@@ -333,21 +318,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>Hydrogen unit price (green)</t>
-  </si>
-  <si>
-    <t>Hydrogen GWP (green)</t>
-  </si>
-  <si>
-    <t>Hydrogen unit price (blue)</t>
-  </si>
-  <si>
-    <t>Hydrogen GWP (blue)</t>
-  </si>
-  <si>
-    <t>Hydrogen unit price (gray)</t>
-  </si>
-  <si>
     <t>Oxygen GWP</t>
   </si>
   <si>
@@ -366,12 +336,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>Hydrogen GWP (gray)</t>
-  </si>
-  <si>
     <t>Statement</t>
   </si>
   <si>
@@ -516,22 +480,67 @@
     <t>BT.turbogenerator_efficiency = x</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>Electricity unit price (conventional)</t>
+  </si>
+  <si>
+    <t>Electricity GWP (conventional)</t>
+  </si>
+  <si>
+    <t>Electricity unit price (renewable)</t>
+  </si>
+  <si>
+    <t>Electricity GWP (renewable)</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Hydrogen unit price (conventional)</t>
+  </si>
+  <si>
+    <t>Hydrogen GWP (conventional)</t>
+  </si>
+  <si>
+    <t>Hydrogen unit price (renewable)</t>
+  </si>
+  <si>
+    <t>Hydrogen GWP (renewable)</t>
+  </si>
+  <si>
+    <t>Natural gas unit price (conventional)</t>
+  </si>
+  <si>
+    <t>Natural gas GWP (conventional)</t>
+  </si>
+  <si>
+    <t>GREET</t>
+  </si>
+  <si>
+    <t>https://www.spglobal.com/commodity-insights/en/news-research/infographics/content-design-infographics/platts-hydrogen-price-wall</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/sites/default/files/2023-11/NZTT%20FY21%20Summary%20Report_Final_.pdf</t>
+  </si>
+  <si>
+    <t>lca.CFs['GWP_100']['O2'] = x</t>
+  </si>
+  <si>
+    <t>lca.CFs['GWP_100']['H2'] = x</t>
+  </si>
+  <si>
+    <t>lca.CFs['GWP_100']['Electricity'] = x</t>
   </si>
   <si>
     <t>lca.CFs['GWP_100']['cornstover'] = x</t>
   </si>
   <si>
-    <t>lca.CFs['GWP_100']['Electricity'] = x</t>
-  </si>
-  <si>
-    <t>lca.CFs['GWP_100']['H2'] = x</t>
-  </si>
-  <si>
-    <t>lca.CFs['GWP_100']['MeOH'] = x</t>
-  </si>
-  <si>
-    <t>lca.CFs['GWP_100']['oxygen'] = x</t>
+    <t>lca.CFs['GWP_100']['CH4'] = x</t>
+  </si>
+  <si>
+    <t>lca.CFs['GWP_100']['CH3OH'] = x</t>
   </si>
 </sst>
 </file>
@@ -906,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -932,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -953,28 +962,28 @@
         <v>6</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3">
         <f>2000000/24</f>
         <v>83333.333333333328</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3">
         <f>E2*0.8</f>
@@ -989,27 +998,27 @@
         <v>99999.999999999985</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3">
         <v>0.2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3">
         <f>E3*0.8</f>
@@ -1024,27 +1033,27 @@
         <v>0.24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3">
         <v>0.36109999999999998</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3">
         <v>0.3377</v>
@@ -1056,27 +1065,27 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3">
         <v>0.20599999999999999</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3">
         <v>0.19600000000000001</v>
@@ -1088,27 +1097,27 @@
         <v>0.21640000000000001</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
         <v>0.20050000000000001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3">
         <v>0.19089999999999999</v>
@@ -1120,27 +1129,27 @@
         <v>0.2145</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3">
         <v>3.1125E-2</v>
@@ -1152,27 +1161,27 @@
         <v>6.1074999999999997E-2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="3">
         <v>330</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="3">
         <f>0.9*E8</f>
@@ -1187,27 +1196,27 @@
         <v>363.00000000000006</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3">
         <v>0.21</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3">
         <v>0.15</v>
@@ -1216,27 +1225,27 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3">
         <v>0.1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3">
         <v>0.08</v>
@@ -1245,7 +1254,7 @@
         <v>0.12</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1253,10 +1262,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
@@ -1265,7 +1274,7 @@
         <v>9.1146890784133197E-2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ref="G11:G19" si="0">E11*0.8</f>
@@ -1280,18 +1289,18 @@
         <v>0.10937626894095984</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -1300,7 +1309,7 @@
         <v>0.145967078841204</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
@@ -1311,18 +1320,18 @@
         <v>0.1751604946094448</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -1331,7 +1340,7 @@
         <v>0.87580247304722503</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
@@ -1342,18 +1351,18 @@
         <v>1.0509629676566701</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -1363,7 +1372,7 @@
         <v>0.40874235405947756</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
@@ -1374,18 +1383,18 @@
         <v>0.49049082487137308</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -1394,7 +1403,7 @@
         <v>9.9133291715074595E-2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
@@ -1405,18 +1414,18 @@
         <v>0.11895995005808951</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
@@ -1425,7 +1434,7 @@
         <v>1.2009326789994701</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
@@ -1436,18 +1445,18 @@
         <v>1.4411192147993641</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -1456,7 +1465,7 @@
         <v>0.91295772947953102</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
@@ -1467,18 +1476,18 @@
         <v>1.0955492753754372</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -1487,7 +1496,7 @@
         <v>0.91993662256809305</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
@@ -1498,18 +1507,18 @@
         <v>1.1039239470817117</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -1518,7 +1527,7 @@
         <v>2.1447049186042699</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
@@ -1529,677 +1538,675 @@
         <v>2.5736459023251239</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="3">
-        <v>0.28936735642924299</v>
+        <v>0.13514000000000001</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="3">
         <f>H20*0.8</f>
-        <v>0.23149388514339442</v>
+        <v>0.10811200000000001</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ref="H20:H26" si="1">E20</f>
-        <v>0.28936735642924299</v>
+        <f t="shared" ref="H20:H24" si="1">E20</f>
+        <v>0.13514000000000001</v>
       </c>
       <c r="I20" s="3">
         <f>H20*1.2</f>
-        <v>0.34724082771509157</v>
+        <v>0.16216800000000001</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3">
-        <v>0.13514000000000001</v>
+        <v>3.5635187930642802</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="3">
         <f>H21*0.8</f>
-        <v>0.10811200000000001</v>
+        <v>2.8508150344514243</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>0.13514000000000001</v>
+        <v>3.5635187930642802</v>
       </c>
       <c r="I21" s="3">
         <f>H21*1.2</f>
-        <v>0.16216800000000001</v>
+        <v>4.2762225516771357</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="3">
-        <v>3.5635187930642802</v>
+        <v>1.0922825059934799E-3</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="3">
-        <f>H22*0.8</f>
-        <v>2.8508150344514243</v>
+        <f>E22*0.8</f>
+        <v>8.73826004794784E-4</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>3.5635187930642802</v>
+        <v>1.0922825059934799E-3</v>
       </c>
       <c r="I22" s="3">
-        <f>H22*1.2</f>
-        <v>4.2762225516771357</v>
+        <f>E22*1.2</f>
+        <v>1.3107390071921759E-3</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3">
-        <v>8.4539160408078698E-2</v>
+        <f>0.00226547482724574</f>
+        <v>2.2654748272457402E-3</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="3">
-        <v>7.8343341427146204E-2</v>
+        <f>E23*0.8</f>
+        <v>1.8123798617965922E-3</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>8.4539160408078698E-2</v>
+        <v>2.2654748272457402E-3</v>
       </c>
       <c r="I23" s="3">
-        <v>0.110173994390799</v>
+        <f>E23*1.2</f>
+        <v>2.7185697926948881E-3</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3">
-        <v>1.0922825059934799E-3</v>
+        <v>-5.5494447764336201E-2</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3">
-        <f>E24*0.8</f>
-        <v>8.73826004794784E-4</v>
+        <f>E24*1.2</f>
+        <v>-6.6593337317203433E-2</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>1.0922825059934799E-3</v>
+        <v>-5.5494447764336201E-2</v>
       </c>
       <c r="I24" s="3">
-        <f>E24*1.2</f>
-        <v>1.3107390071921759E-3</v>
+        <f>E24*0.8</f>
+        <v>-4.4395558211468962E-2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E25" s="3">
-        <f>0.00226547482724574</f>
-        <v>2.2654748272457402E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" s="3">
-        <f>E25*0.8</f>
-        <v>1.8123798617965922E-3</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2654748272457402E-3</v>
+        <f t="shared" ref="H25:H32" si="2">E25</f>
+        <v>0.2</v>
       </c>
       <c r="I25" s="3">
-        <f>E25*1.2</f>
-        <v>2.7185697926948881E-3</v>
+        <v>0.25</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E26" s="3">
-        <v>-5.5494447764336201E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="3">
-        <f>E26*1.2</f>
-        <v>-6.6593337317203433E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="1"/>
-        <v>-5.5494447764336201E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.02</v>
       </c>
       <c r="I26" s="3">
-        <f>E26*0.8</f>
-        <v>-4.4395558211468962E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="3">
-        <v>0.17499999999999999</v>
+        <f>E27*0.9</f>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" ref="H27:H34" si="2">E27</f>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="I27" s="3">
-        <v>0.25</v>
+        <f>E27*1.1</f>
+        <v>0.11000000000000001</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E28" s="3">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" s="3">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="I28" s="3">
-        <v>0.03</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="3">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" s="3">
-        <f>E29*0.9</f>
-        <v>9.0000000000000011E-2</v>
+        <v>0.9</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="I29" s="3">
-        <f>E29*1.1</f>
-        <v>0.11000000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" s="3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="I30" s="3">
         <v>0.9</v>
       </c>
-      <c r="I30" s="3">
-        <v>0.94799999999999995</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="3">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="3">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="2"/>
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="I31" s="3">
-        <v>0.97</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="3">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="I32" s="3">
         <v>0.85</v>
       </c>
-      <c r="I32" s="3">
-        <v>0.9</v>
-      </c>
       <c r="J32" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G33" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+        <f>E33*0.9</f>
+        <v>0.72000000000000008</v>
       </c>
       <c r="I33" s="3">
-        <v>0.94799999999999995</v>
+        <f>E33*1.1</f>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G34" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f>E34*0.9</f>
+        <v>0.76500000000000001</v>
       </c>
       <c r="I34" s="3">
-        <v>0.85</v>
+        <f>E34*1.1</f>
+        <v>0.93500000000000005</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E35" s="3">
-        <v>0.8</v>
+        <v>0.10945000000000001</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G35" s="3">
-        <f>E35*0.9</f>
-        <v>0.72000000000000008</v>
+        <f>E35*0.8</f>
+        <v>8.7560000000000013E-2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.10945000000000001</v>
       </c>
       <c r="I35" s="3">
-        <f>E35*1.1</f>
-        <v>0.88000000000000012</v>
+        <f>E35*1.2</f>
+        <v>0.13134000000000001</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E36" s="3">
-        <v>0.85</v>
+        <v>0.28936735642924299</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G36" s="3">
-        <f>E36*0.9</f>
-        <v>0.76500000000000001</v>
+        <f>H36*0.8</f>
+        <v>0.23149388514339442</v>
+      </c>
+      <c r="H36" s="3">
+        <f>E36</f>
+        <v>0.28936735642924299</v>
       </c>
       <c r="I36" s="3">
-        <f>E36*1.1</f>
-        <v>0.93500000000000005</v>
+        <f>H36*1.2</f>
+        <v>0.34724082771509157</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E37" s="3">
-        <v>0.10945000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37" s="3">
-        <f>E37*0.8</f>
-        <v>8.7560000000000013E-2</v>
+        <f>H37*0.8</f>
+        <v>0.28399999999999997</v>
       </c>
       <c r="H37" s="3">
-        <v>0.10945000000000001</v>
+        <f>E37</f>
+        <v>0.35499999999999998</v>
       </c>
       <c r="I37" s="3">
-        <f>E37*1.2</f>
-        <v>0.13134000000000001</v>
+        <f>H37*1.2</f>
+        <v>0.42599999999999999</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E38" s="3">
-        <v>0.435</v>
+        <v>0.8</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G38" s="3">
-        <f>E38*0.8</f>
-        <v>0.34800000000000003</v>
-      </c>
-      <c r="H38" s="3">
-        <f>E38</f>
-        <v>0.435</v>
+        <v>0.7</v>
       </c>
       <c r="I38" s="3">
-        <f>E38*1.2</f>
-        <v>0.52200000000000002</v>
+        <v>0.95</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E39" s="3">
-        <v>0.8</v>
+        <v>1.44</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="3">
-        <v>0.7</v>
+        <f t="shared" ref="G39:G53" si="3">E39*0.8</f>
+        <v>1.1519999999999999</v>
       </c>
       <c r="I39" s="3">
-        <v>0.95</v>
+        <f>1.2*E39</f>
+        <v>1.728</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2207,61 +2214,65 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="3">
-        <v>1.44</v>
+        <v>32.485780240073801</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ref="G40:G54" si="3">E40*0.8</f>
-        <v>1.1519999999999999</v>
+        <f t="shared" si="3"/>
+        <v>25.988624192059042</v>
       </c>
       <c r="I40" s="3">
         <f>1.2*E40</f>
-        <v>1.728</v>
+        <v>38.98293628808856</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E41" s="3">
-        <v>32.485780240073801</v>
+        <v>0.6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="3"/>
-        <v>25.988624192059042</v>
+        <f t="shared" ref="G41:G46" si="4">E41*0.8</f>
+        <v>0.48</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" ref="H41:H48" si="5">E41</f>
+        <v>0.6</v>
       </c>
       <c r="I41" s="3">
-        <f>1.2*E41</f>
-        <v>38.98293628808856</v>
+        <f t="shared" ref="I41:I46" si="6">E41*1.2</f>
+        <v>0.72</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2269,34 +2280,34 @@
         <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42" s="3">
-        <v>0.6</v>
+        <v>0.21</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" ref="G42:G47" si="4">E42*0.8</f>
-        <v>0.48</v>
+        <f t="shared" si="4"/>
+        <v>0.16800000000000001</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" ref="H42:H49" si="5">E42</f>
-        <v>0.6</v>
+        <f t="shared" si="5"/>
+        <v>0.21</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" ref="I42:I47" si="6">E42*1.2</f>
-        <v>0.72</v>
+        <f t="shared" si="6"/>
+        <v>0.252</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2304,34 +2315,34 @@
         <v>54</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E43" s="3">
-        <v>0.21</v>
+        <v>2.8965517241379302</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="4"/>
-        <v>0.16800000000000001</v>
+        <v>2.3172413793103441</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="5"/>
-        <v>0.21</v>
+        <v>2.8965517241379302</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="6"/>
-        <v>0.252</v>
+        <v>3.4758620689655162</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2339,69 +2350,69 @@
         <v>55</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E44" s="3">
-        <v>2.8965517241379302</v>
+        <v>1775</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="4"/>
-        <v>2.3172413793103441</v>
+        <v>1420</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="5"/>
-        <v>2.8965517241379302</v>
+        <v>1775</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="6"/>
-        <v>3.4758620689655162</v>
+        <v>2130</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E45" s="3">
-        <v>1775</v>
+        <v>7884</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="4"/>
-        <v>1420</v>
+        <v>6307.2000000000007</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="5"/>
-        <v>1775</v>
+        <v>7884</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="6"/>
-        <v>2130</v>
+        <v>9460.7999999999993</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2409,692 +2420,651 @@
         <v>58</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E46" s="3">
-        <v>7884</v>
+        <v>0.5</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="4"/>
-        <v>6307.2000000000007</v>
+        <v>0.4</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="5"/>
-        <v>7884</v>
+        <v>0.5</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="6"/>
-        <v>9460.7999999999993</v>
+        <v>0.6</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E47" s="3">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.312</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>130</v>
+        <v>0.4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E48" s="3">
-        <v>0.35</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G48" s="3">
-        <v>0.312</v>
+        <f>E48*0.8</f>
+        <v>0.46399999999999997</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="5"/>
-        <v>0.35</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I48" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="J48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f>E48*1.2</f>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E49" s="3">
-        <v>0.57999999999999996</v>
+        <v>10</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G49" s="3">
-        <f>E49*0.8</f>
-        <v>0.46399999999999997</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="5"/>
-        <v>0.57999999999999996</v>
+        <f t="shared" ref="H49:H53" si="7">E49</f>
+        <v>10</v>
       </c>
       <c r="I49" s="3">
-        <f>E49*1.2</f>
-        <v>0.69599999999999995</v>
+        <f t="shared" ref="I49:I53" si="8">E49*1.2</f>
+        <v>12</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E50" s="3">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" ref="H50:H54" si="7">E50</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>1.01</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" ref="I50:I54" si="8">E50*1.2</f>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>1.212</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51" s="3">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="3"/>
-        <v>0.80800000000000005</v>
+        <v>1.1039999999999999</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="7"/>
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="8"/>
-        <v>1.212</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E52" s="3">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="3"/>
-        <v>1.1039999999999999</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="7"/>
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="8"/>
-        <v>1.6559999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E53" s="3">
-        <v>1.05</v>
+        <f>1208000/500000*24</f>
+        <v>57.983999999999995</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="3"/>
-        <v>0.84000000000000008</v>
+        <v>46.3872</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="7"/>
-        <v>1.05</v>
+        <v>57.983999999999995</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="8"/>
-        <v>1.26</v>
+        <v>69.580799999999996</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="3">
+        <f>E54*0.8</f>
+        <v>0.18400000000000002</v>
+      </c>
+      <c r="H54" s="3">
+        <f>E54</f>
+        <v>0.23</v>
+      </c>
+      <c r="I54" s="3">
+        <f>E54*1.2</f>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="3">
-        <f>1208000/500000*24</f>
-        <v>57.983999999999995</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="3"/>
-        <v>46.3872</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="7"/>
-        <v>57.983999999999995</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="8"/>
-        <v>69.580799999999996</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E55" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1726</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="3">
-        <v>1.95E-2</v>
+        <f>E55*0.8</f>
+        <v>0.13808000000000001</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" ref="H55:H56" si="9">E55</f>
-        <v>2.5000000000000001E-2</v>
+        <f>E55</f>
+        <v>0.1726</v>
       </c>
       <c r="I55" s="3">
-        <v>2.9499999999999998E-2</v>
+        <f>E55*1.2</f>
+        <v>0.20712</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="H56" s="3">
+        <f>E56</f>
+        <v>1.05</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="3">
-        <f>E56*0.5</f>
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="H56" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="I56" s="3">
-        <f>E56*1.5</f>
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E57" s="3">
-        <v>0.23</v>
+        <v>11.05</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G57" s="3">
         <f>E57*0.8</f>
-        <v>0.18400000000000002</v>
+        <v>8.8400000000000016</v>
       </c>
       <c r="H57" s="3">
-        <f>E57</f>
-        <v>0.23</v>
+        <f t="shared" ref="H57:H59" si="9">E57</f>
+        <v>11.05</v>
       </c>
       <c r="I57" s="3">
-        <f>E57*1.2</f>
-        <v>0.27600000000000002</v>
+        <f>1.2*E57</f>
+        <v>13.26</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>163</v>
+      </c>
+      <c r="K57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3.69</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="9"/>
+        <v>3.69</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8.4539160408078698E-2</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="3">
+        <v>7.8343341427146204E-2</v>
+      </c>
+      <c r="H60" s="3">
+        <f>E60</f>
+        <v>8.4539160408078698E-2</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0.110173994390799</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.1726</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="3">
-        <f>E58*0.8</f>
-        <v>0.13808000000000001</v>
-      </c>
-      <c r="H58" s="3">
-        <f>E58</f>
-        <v>0.1726</v>
-      </c>
-      <c r="I58" s="3">
-        <f>E58*1.2</f>
-        <v>0.20712</v>
-      </c>
-      <c r="J58" s="3" t="s">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.435</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="3">
+        <f>E61*0.8</f>
+        <v>0.34800000000000003</v>
+      </c>
+      <c r="H61" s="3">
+        <f>E61</f>
+        <v>0.435</v>
+      </c>
+      <c r="I61" s="3">
+        <f>E61*1.2</f>
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="3">
-        <f>AVERAGE(G59,I59)</f>
-        <v>14.38791618046392</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="3">
-        <f>12/366.788*351.821</f>
-        <v>11.510332944371136</v>
-      </c>
-      <c r="H59" s="3">
-        <f>E59</f>
-        <v>14.38791618046392</v>
-      </c>
-      <c r="I59" s="3">
-        <f>18/366.788*351.821</f>
-        <v>17.265499416556704</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" ref="E60:E64" si="10">AVERAGE(G60,I60)</f>
-        <v>3.5395399199999993</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="3">
-        <f>3.24*0.134481</f>
-        <v>0.43571843999999998</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" ref="H60:H64" si="11">E60</f>
-        <v>3.5395399199999993</v>
-      </c>
-      <c r="I60" s="3">
-        <f>49.4*0.134481</f>
-        <v>6.643361399999999</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="10"/>
-        <v>10.93481629715258</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="3">
-        <f>9.4/366.788*351.821</f>
-        <v>9.0164274730907241</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="11"/>
-        <v>10.93481629715258</v>
-      </c>
-      <c r="I61" s="3">
-        <f>13.4/366.788*351.821</f>
-        <v>12.853205121214435</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="10"/>
-        <v>8.203341</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G62" s="3">
-        <f>43.6*0.134481</f>
-        <v>5.8633715999999998</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="11"/>
-        <v>8.203341</v>
+        <f>E62</f>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="I62" s="3">
-        <f>78.4*0.134481</f>
-        <v>10.543310399999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="10"/>
-        <v>9.7837830027154649</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G63" s="3">
-        <f>8.2/366.788*351.821</f>
-        <v>7.8653941786536095</v>
+        <f>E63*0.8</f>
+        <v>1.5359999999999999E-2</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="11"/>
-        <v>9.7837830027154649</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="I63" s="3">
-        <f>12.2/366.788*351.821</f>
-        <v>11.70217182677732</v>
+        <f>E63*1.2</f>
+        <v>2.3039999999999998E-2</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="10"/>
-        <v>15.384626399999998</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="3">
-        <f>96.8*0.134481</f>
-        <v>13.017760799999998</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="11"/>
-        <v>15.384626399999998</v>
-      </c>
-      <c r="I64" s="3">
-        <f>132*0.134481</f>
-        <v>17.751491999999999</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="6"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="6"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="6"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3118,23 +3088,23 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" s="3">
         <f>2000000/24</f>
         <v>83333.333333333328</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3">
         <f>E1*0.8</f>
@@ -3150,27 +3120,27 @@
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>0.2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3">
         <v>0.1</v>
@@ -3184,27 +3154,27 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3">
         <v>0.58426199999999995</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3">
         <v>0.55000000000000004</v>
@@ -3217,27 +3187,27 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3">
         <v>0.60709999999999997</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3">
         <v>0.5</v>
@@ -3248,27 +3218,27 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3">
         <v>1.9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3">
         <v>1.45</v>
@@ -3281,18 +3251,18 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -3302,7 +3272,7 @@
         <v>0.82936318933676811</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3">
         <f>0.409/0.747561512219763</f>
@@ -3318,27 +3288,27 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3">
         <v>0.40400000000000003</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3">
         <f>E7</f>
@@ -3350,7 +3320,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/CCU/EtOH/analyses/parameter_distributions/parameter-distributions_full.xlsx
+++ b/CCU/EtOH/analyses/parameter_distributions/parameter-distributions_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\GitHub\CCU\CCU\EtOH\analyses\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C40BE-6919-4660-8F6E-3C5EAD970F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E0B39B-5611-4165-BE6E-793EB7AEA548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="171">
   <si>
     <t>Parameter name</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Seedtrain xylose-to-ethanol</t>
   </si>
   <si>
-    <t>CO2 recovery</t>
-  </si>
-  <si>
     <t xml:space="preserve">Heat integration split recycled </t>
   </si>
   <si>
@@ -375,9 +372,6 @@
     <t>R1101.base_kWh_per_kg_hydrogen = x</t>
   </si>
   <si>
-    <t>U1301.CO2_recovery = x</t>
-  </si>
-  <si>
     <t>S1101.split = x</t>
   </si>
   <si>
@@ -525,22 +519,37 @@
     <t>https://www.energy.gov/sites/default/files/2023-11/NZTT%20FY21%20Summary%20Report_Final_.pdf</t>
   </si>
   <si>
-    <t>lca.CFs['GWP_100']['O2'] = x</t>
-  </si>
-  <si>
-    <t>lca.CFs['GWP_100']['H2'] = x</t>
-  </si>
-  <si>
-    <t>lca.CFs['GWP_100']['Electricity'] = x</t>
-  </si>
-  <si>
-    <t>lca.CFs['GWP_100']['cornstover'] = x</t>
-  </si>
-  <si>
-    <t>lca.CFs['GWP_100']['CH4'] = x</t>
-  </si>
-  <si>
-    <t>lca.CFs['GWP_100']['CH3OH'] = x</t>
+    <t>lca.change_CF('GWP_100', 'cornstover', x)</t>
+  </si>
+  <si>
+    <t>lca.change_CF('GWP_100', 'CH4', x)</t>
+  </si>
+  <si>
+    <t>lca.change_CF('GWP_100', 'CH3OH', x)</t>
+  </si>
+  <si>
+    <t>lca.change_CF('GWP_100', 'O2', x)</t>
+  </si>
+  <si>
+    <t>lca.change_CF('GWP_100', 'H2', x)</t>
+  </si>
+  <si>
+    <t>lca.change_CF('GWP_100', 'Electricity', x)</t>
+  </si>
+  <si>
+    <t>CCU credit</t>
+  </si>
+  <si>
+    <t>$/MT CO2</t>
+  </si>
+  <si>
+    <t>tea.carbon_credit = x</t>
+  </si>
+  <si>
+    <t>CCU credit years</t>
+  </si>
+  <si>
+    <t>tea.credit_years = x</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -614,11 +623,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,6 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -962,21 +983,21 @@
         <v>6</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3">
         <f>2000000/24</f>
@@ -998,15 +1019,15 @@
         <v>99999.999999999985</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -1033,15 +1054,15 @@
         <v>0.24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
@@ -1065,15 +1086,15 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -1097,15 +1118,15 @@
         <v>0.21640000000000001</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -1129,15 +1150,15 @@
         <v>0.2145</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -1161,7 +1182,7 @@
         <v>6.1074999999999997E-2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1169,7 +1190,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -1196,7 +1217,7 @@
         <v>363.00000000000006</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1204,7 +1225,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -1225,7 +1246,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1233,7 +1254,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
@@ -1254,7 +1275,7 @@
         <v>0.12</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1262,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
@@ -1289,7 +1310,7 @@
         <v>0.10937626894095984</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1297,7 +1318,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
@@ -1320,7 +1341,7 @@
         <v>0.1751604946094448</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1328,7 +1349,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -1351,7 +1372,7 @@
         <v>1.0509629676566701</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1359,7 +1380,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>15</v>
@@ -1383,7 +1404,7 @@
         <v>0.49049082487137308</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1391,7 +1412,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -1414,7 +1435,7 @@
         <v>0.11895995005808951</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1422,7 +1443,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>15</v>
@@ -1445,7 +1466,7 @@
         <v>1.4411192147993641</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1453,7 +1474,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
@@ -1476,7 +1497,7 @@
         <v>1.0955492753754372</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1484,7 +1505,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
@@ -1507,7 +1528,7 @@
         <v>1.1039239470817117</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1515,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>15</v>
@@ -1538,7 +1559,7 @@
         <v>2.5736459023251239</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1546,7 +1567,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
@@ -1573,7 +1594,7 @@
         <v>0.16216800000000001</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1581,7 +1602,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
@@ -1608,7 +1629,7 @@
         <v>4.2762225516771357</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1616,7 +1637,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>15</v>
@@ -1643,7 +1664,7 @@
         <v>1.3107390071921759E-3</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1651,7 +1672,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>15</v>
@@ -1679,7 +1700,7 @@
         <v>2.7185697926948881E-3</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1687,7 +1708,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>15</v>
@@ -1714,7 +1735,7 @@
         <v>-4.4395558211468962E-2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1722,7 +1743,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
@@ -1747,7 +1768,7 @@
         <v>0.25</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1755,7 +1776,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
@@ -1780,7 +1801,7 @@
         <v>0.03</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1788,7 +1809,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>16</v>
@@ -1815,7 +1836,7 @@
         <v>0.11000000000000001</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1823,7 +1844,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>16</v>
@@ -1848,7 +1869,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1856,7 +1877,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>16</v>
@@ -1881,7 +1902,7 @@
         <v>0.97</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1889,7 +1910,7 @@
         <v>47</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>16</v>
@@ -1914,7 +1935,7 @@
         <v>0.9</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1922,7 +1943,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>16</v>
@@ -1947,7 +1968,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1955,7 +1976,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>16</v>
@@ -1980,7 +2001,7 @@
         <v>0.85</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1988,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>16</v>
@@ -2011,7 +2032,7 @@
         <v>0.88000000000000012</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2019,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>16</v>
@@ -2042,21 +2063,21 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="3">
         <v>0.10945000000000001</v>
@@ -2076,15 +2097,15 @@
         <v>0.13134000000000001</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>15</v>
@@ -2111,21 +2132,21 @@
         <v>0.34724082771509157</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="3">
         <v>0.35499999999999998</v>
@@ -2146,44 +2167,46 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E38" s="3">
-        <v>0.8</v>
+        <v>1.44</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="3">
-        <v>0.7</v>
+        <f t="shared" ref="G38:G52" si="3">E38*0.8</f>
+        <v>1.1519999999999999</v>
       </c>
       <c r="I38" s="3">
-        <v>0.95</v>
+        <f>1.2*E38</f>
+        <v>1.728</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
@@ -2192,18 +2215,18 @@
         <v>9</v>
       </c>
       <c r="E39" s="3">
-        <v>1.44</v>
+        <v>32.485780240073801</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" ref="G39:G53" si="3">E39*0.8</f>
-        <v>1.1519999999999999</v>
+        <f t="shared" si="3"/>
+        <v>25.988624192059042</v>
       </c>
       <c r="I39" s="3">
         <f>1.2*E39</f>
-        <v>1.728</v>
+        <v>38.98293628808856</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>104</v>
@@ -2211,33 +2234,37 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E40" s="3">
-        <v>32.485780240073801</v>
+        <v>0.6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="3"/>
-        <v>25.988624192059042</v>
+        <f t="shared" ref="G40:G45" si="4">E40*0.8</f>
+        <v>0.48</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40:H47" si="5">E40</f>
+        <v>0.6</v>
       </c>
       <c r="I40" s="3">
-        <f>1.2*E40</f>
-        <v>38.98293628808856</v>
+        <f t="shared" ref="I40:I45" si="6">E40*1.2</f>
+        <v>0.72</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2245,7 +2272,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>16</v>
@@ -2254,25 +2281,25 @@
         <v>27</v>
       </c>
       <c r="E41" s="3">
-        <v>0.6</v>
+        <v>0.21</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" ref="G41:G46" si="4">E41*0.8</f>
-        <v>0.48</v>
+        <f t="shared" si="4"/>
+        <v>0.16800000000000001</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" ref="H41:H48" si="5">E41</f>
-        <v>0.6</v>
+        <f t="shared" si="5"/>
+        <v>0.21</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" ref="I41:I46" si="6">E41*1.2</f>
-        <v>0.72</v>
+        <f t="shared" si="6"/>
+        <v>0.252</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2280,34 +2307,34 @@
         <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E42" s="3">
-        <v>0.21</v>
+        <v>2.8965517241379302</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="4"/>
-        <v>0.16800000000000001</v>
+        <v>2.3172413793103441</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="5"/>
-        <v>0.21</v>
+        <v>2.8965517241379302</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="6"/>
-        <v>0.252</v>
+        <v>3.4758620689655162</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2315,69 +2342,69 @@
         <v>54</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E43" s="3">
-        <v>2.8965517241379302</v>
+        <v>1775</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="4"/>
-        <v>2.3172413793103441</v>
+        <v>1420</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="5"/>
-        <v>2.8965517241379302</v>
+        <v>1775</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="6"/>
-        <v>3.4758620689655162</v>
+        <v>2130</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E44" s="3">
-        <v>1775</v>
+        <v>7884</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="4"/>
-        <v>1420</v>
+        <v>6307.2000000000007</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="5"/>
-        <v>1775</v>
+        <v>7884</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="6"/>
-        <v>2130</v>
+        <v>9460.7999999999993</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2385,69 +2412,67 @@
         <v>57</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E45" s="3">
-        <v>7884</v>
+        <v>0.5</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="4"/>
-        <v>6307.2000000000007</v>
+        <v>0.4</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="5"/>
-        <v>7884</v>
+        <v>0.5</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="6"/>
-        <v>9460.7999999999993</v>
+        <v>0.6</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E46" s="3">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.312</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>118</v>
+        <v>0.4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2455,99 +2480,101 @@
         <v>94</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E47" s="3">
-        <v>0.35</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="3">
-        <v>0.312</v>
+        <f>E47*0.8</f>
+        <v>0.46399999999999997</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="5"/>
-        <v>0.35</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I47" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="J47" t="s">
-        <v>119</v>
+        <f>E47*1.2</f>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="C48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E48" s="3">
-        <v>0.57999999999999996</v>
+        <v>10</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="3">
-        <f>E48*0.8</f>
-        <v>0.46399999999999997</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="5"/>
-        <v>0.57999999999999996</v>
+        <f t="shared" ref="H48:H52" si="7">E48</f>
+        <v>10</v>
       </c>
       <c r="I48" s="3">
-        <f>E48*1.2</f>
-        <v>0.69599999999999995</v>
+        <f t="shared" ref="I48:I52" si="8">E48*1.2</f>
+        <v>12</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E49" s="3">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" ref="H49:H53" si="7">E49</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>1.01</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" ref="I49:I53" si="8">E49*1.2</f>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>1.212</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>107</v>
@@ -2558,7 +2585,7 @@
         <v>61</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>15</v>
@@ -2567,22 +2594,22 @@
         <v>27</v>
       </c>
       <c r="E50" s="3">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="3"/>
-        <v>0.80800000000000005</v>
+        <v>1.1039999999999999</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="7"/>
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="8"/>
-        <v>1.212</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>108</v>
@@ -2593,7 +2620,7 @@
         <v>62</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>15</v>
@@ -2602,22 +2629,22 @@
         <v>27</v>
       </c>
       <c r="E51" s="3">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="3"/>
-        <v>1.1039999999999999</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="7"/>
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="8"/>
-        <v>1.6559999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>109</v>
@@ -2628,31 +2655,32 @@
         <v>63</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E52" s="3">
-        <v>1.05</v>
+        <f>1208000/500000*24</f>
+        <v>57.983999999999995</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="3"/>
-        <v>0.84000000000000008</v>
+        <v>46.3872</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="7"/>
-        <v>1.05</v>
+        <v>57.983999999999995</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="8"/>
-        <v>1.26</v>
+        <v>69.580799999999996</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>110</v>
@@ -2660,78 +2688,77 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E53" s="3">
-        <f>1208000/500000*24</f>
-        <v>57.983999999999995</v>
+        <v>0.23</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="3"/>
-        <v>46.3872</v>
+        <f>E53*0.8</f>
+        <v>0.18400000000000002</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="7"/>
-        <v>57.983999999999995</v>
+        <f>E53</f>
+        <v>0.23</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="8"/>
-        <v>69.580799999999996</v>
+        <f>E53*1.2</f>
+        <v>0.27600000000000002</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E54" s="3">
-        <v>0.23</v>
+        <v>0.1726</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="3">
         <f>E54*0.8</f>
-        <v>0.18400000000000002</v>
+        <v>0.13808000000000001</v>
       </c>
       <c r="H54" s="3">
         <f>E54</f>
-        <v>0.23</v>
+        <v>0.1726</v>
       </c>
       <c r="I54" s="3">
         <f>E54*1.2</f>
-        <v>0.27600000000000002</v>
+        <v>0.20712</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>96</v>
@@ -2740,69 +2767,72 @@
         <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E55" s="3">
-        <v>0.1726</v>
+        <v>1.05</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="3">
-        <f>E55*0.8</f>
-        <v>0.13808000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="H55" s="3">
         <f>E55</f>
-        <v>0.1726</v>
+        <v>1.05</v>
       </c>
       <c r="I55" s="3">
-        <f>E55*1.2</f>
-        <v>0.20712</v>
+        <v>1.08</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>162</v>
+        <v>118</v>
+      </c>
+      <c r="K55" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E56" s="3">
-        <v>1.05</v>
+        <v>11.05</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="3">
-        <v>0.93</v>
+        <f>E56*0.8</f>
+        <v>8.8400000000000016</v>
       </c>
       <c r="H56" s="3">
-        <f>E56</f>
-        <v>1.05</v>
+        <f t="shared" ref="H56:H58" si="9">E56</f>
+        <v>11.05</v>
       </c>
       <c r="I56" s="3">
-        <v>1.08</v>
+        <f>1.2*E56</f>
+        <v>13.26</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="K56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>97</v>
@@ -2811,236 +2841,267 @@
         <v>15</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E57" s="3">
-        <v>11.05</v>
+        <v>3.69</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G57" s="3">
-        <f>E57*0.8</f>
-        <v>8.8400000000000016</v>
+        <v>3.13</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ref="H57:H59" si="9">E57</f>
-        <v>11.05</v>
+        <f t="shared" si="9"/>
+        <v>3.69</v>
       </c>
       <c r="I57" s="3">
-        <f>1.2*E57</f>
-        <v>13.26</v>
+        <v>5.44</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K57" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E58" s="3">
-        <v>3.69</v>
+        <v>0.6</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="3">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="9"/>
-        <v>3.69</v>
+        <v>0.6</v>
       </c>
       <c r="I58" s="3">
-        <v>5.44</v>
+        <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>120</v>
+        <v>164</v>
+      </c>
+      <c r="K58" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E59" s="3">
-        <v>0.6</v>
+        <v>8.4539160408078698E-2</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>7.8343341427146204E-2</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
+        <f>E59</f>
+        <v>8.4539160408078698E-2</v>
       </c>
       <c r="I59" s="3">
-        <v>1</v>
+        <v>0.110173994390799</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K59" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E60" s="3">
-        <v>8.4539160408078698E-2</v>
+        <v>0.435</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="3">
-        <v>7.8343341427146204E-2</v>
+        <f>E60*0.8</f>
+        <v>0.34800000000000003</v>
       </c>
       <c r="H60" s="3">
         <f>E60</f>
-        <v>8.4539160408078698E-2</v>
+        <v>0.435</v>
       </c>
       <c r="I60" s="3">
-        <v>0.110173994390799</v>
+        <f>E60*1.2</f>
+        <v>0.52200000000000002</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E61" s="3">
-        <v>0.435</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="3">
-        <f>E61*0.8</f>
-        <v>0.34800000000000003</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <f>E61</f>
-        <v>0.435</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I61" s="3">
-        <f>E61*1.2</f>
-        <v>0.52200000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E62" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="3">
-        <v>2.9000000000000001E-2</v>
+        <f>E62*0.8</f>
+        <v>1.5359999999999999E-2</v>
       </c>
       <c r="H62" s="3">
-        <f>E62</f>
-        <v>4.1000000000000002E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="I62" s="3">
-        <v>5.6000000000000001E-2</v>
+        <f>E62*1.2</f>
+        <v>2.3039999999999998E-2</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="E63" s="3">
-        <v>1.9199999999999998E-2</v>
+        <f>H63</f>
+        <v>85</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G63" s="3">
-        <f>E63*0.8</f>
-        <v>1.5359999999999999E-2</v>
+        <v>60</v>
       </c>
       <c r="H63" s="3">
-        <v>1.9199999999999998E-2</v>
+        <v>85</v>
       </c>
       <c r="I63" s="3">
-        <f>E63*1.2</f>
-        <v>2.3039999999999998E-2</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="3">
+        <f>H64</f>
+        <v>12</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="3">
+        <v>10</v>
+      </c>
+      <c r="H64" s="3">
+        <v>12</v>
+      </c>
+      <c r="I64" s="3">
+        <v>15</v>
+      </c>
+      <c r="J64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="6"/>
@@ -3060,11 +3121,8 @@
     <row r="79" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="6"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="6"/>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3088,16 +3146,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3">
         <f>2000000/24</f>
@@ -3120,15 +3178,15 @@
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
@@ -3154,15 +3212,15 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -3187,15 +3245,15 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
@@ -3218,15 +3276,15 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -3251,7 +3309,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3288,21 +3346,21 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E7" s="3">
         <v>0.40400000000000003</v>
@@ -3320,7 +3378,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/CCU/EtOH/analyses/parameter_distributions/parameter-distributions_full.xlsx
+++ b/CCU/EtOH/analyses/parameter_distributions/parameter-distributions_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGB\Documents\GitHub\CCU\CCU\EtOH\analyses\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E0B39B-5611-4165-BE6E-793EB7AEA548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA2F9B1-ABB9-4A13-9A16-8D36FC5B1562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,9 +354,6 @@
     <t>catalyst_MeOH.price = x</t>
   </si>
   <si>
-    <t>oxygen.price = x</t>
-  </si>
-  <si>
     <t>R1101._default_equipment_lifetime['Stack'] = x</t>
   </si>
   <si>
@@ -525,31 +522,34 @@
     <t>lca.change_CF('GWP_100', 'CH4', x)</t>
   </si>
   <si>
-    <t>lca.change_CF('GWP_100', 'CH3OH', x)</t>
+    <t>lca.change_CF('GWP_100', 'H2', x)</t>
+  </si>
+  <si>
+    <t>lca.change_CF('GWP_100', 'Electricity', x)</t>
+  </si>
+  <si>
+    <t>CCU credit</t>
+  </si>
+  <si>
+    <t>$/MT CO2</t>
+  </si>
+  <si>
+    <t>tea.carbon_credit = x</t>
+  </si>
+  <si>
+    <t>CCU credit years</t>
+  </si>
+  <si>
+    <t>tea.credit_years = x</t>
+  </si>
+  <si>
+    <t>lca.change_CF('GWP_100', 'MeOH', x)</t>
   </si>
   <si>
     <t>lca.change_CF('GWP_100', 'O2', x)</t>
   </si>
   <si>
-    <t>lca.change_CF('GWP_100', 'H2', x)</t>
-  </si>
-  <si>
-    <t>lca.change_CF('GWP_100', 'Electricity', x)</t>
-  </si>
-  <si>
-    <t>CCU credit</t>
-  </si>
-  <si>
-    <t>$/MT CO2</t>
-  </si>
-  <si>
-    <t>tea.carbon_credit = x</t>
-  </si>
-  <si>
-    <t>CCU credit years</t>
-  </si>
-  <si>
-    <t>tea.credit_years = x</t>
+    <t>O2.price = x</t>
   </si>
 </sst>
 </file>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1182,7 +1182,7 @@
         <v>6.1074999999999997E-2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1310,7 +1310,7 @@
         <v>0.10937626894095984</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1341,7 +1341,7 @@
         <v>0.1751604946094448</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1372,7 +1372,7 @@
         <v>1.0509629676566701</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1404,7 +1404,7 @@
         <v>0.49049082487137308</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1435,7 +1435,7 @@
         <v>0.11895995005808951</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1466,7 +1466,7 @@
         <v>1.4411192147993641</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1497,7 +1497,7 @@
         <v>1.0955492753754372</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1528,7 +1528,7 @@
         <v>1.1039239470817117</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1559,7 +1559,7 @@
         <v>2.5736459023251239</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1594,7 +1594,7 @@
         <v>0.16216800000000001</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1629,7 +1629,7 @@
         <v>4.2762225516771357</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1664,7 +1664,7 @@
         <v>1.3107390071921759E-3</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1700,7 +1700,7 @@
         <v>2.7185697926948881E-3</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1735,7 +1735,7 @@
         <v>-4.4395558211468962E-2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1768,7 +1768,7 @@
         <v>0.25</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1801,7 +1801,7 @@
         <v>0.03</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1836,7 +1836,7 @@
         <v>0.11000000000000001</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1869,7 +1869,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1902,7 +1902,7 @@
         <v>0.97</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1935,7 +1935,7 @@
         <v>0.9</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1968,7 +1968,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2001,7 +2001,7 @@
         <v>0.85</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2032,7 +2032,7 @@
         <v>0.88000000000000012</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2063,7 +2063,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2097,12 +2097,12 @@
         <v>0.13134000000000001</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>90</v>
@@ -2132,12 +2132,12 @@
         <v>0.34724082771509157</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>90</v>
@@ -2167,7 +2167,7 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2264,7 +2264,7 @@
         <v>0.72</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2299,7 +2299,7 @@
         <v>0.252</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2334,7 +2334,7 @@
         <v>3.4758620689655162</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2369,7 +2369,7 @@
         <v>2130</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2404,7 +2404,7 @@
         <v>9460.7999999999993</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2439,7 +2439,7 @@
         <v>0.6</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2472,7 +2472,7 @@
         <v>0.4</v>
       </c>
       <c r="J46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2507,7 +2507,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2542,7 +2542,7 @@
         <v>12</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2577,7 +2577,7 @@
         <v>1.212</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2612,7 +2612,7 @@
         <v>1.6559999999999999</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2647,7 +2647,7 @@
         <v>1.26</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2683,7 +2683,7 @@
         <v>69.580799999999996</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2718,7 +2718,7 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2753,12 +2753,12 @@
         <v>0.20712</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>96</v>
@@ -2786,15 +2786,15 @@
         <v>1.08</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>96</v>
@@ -2824,15 +2824,15 @@
         <v>13.26</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>97</v>
@@ -2860,12 +2860,12 @@
         <v>5.44</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>97</v>
@@ -2893,18 +2893,18 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>15</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>15</v>
@@ -2964,15 +2964,15 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>15</v>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>15</v>
@@ -3031,12 +3031,12 @@
         <v>2.3039999999999998E-2</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>91</v>
@@ -3045,7 +3045,7 @@
         <v>15</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E63" s="3">
         <f>H63</f>
@@ -3064,12 +3064,12 @@
         <v>110</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>91</v>
@@ -3097,7 +3097,7 @@
         <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.55000000000000004">
